--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_NoEng_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_NoEng_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>302.412353515625</v>
+        <v>303.6779174804688</v>
       </c>
       <c r="I2" t="n">
-        <v>105.2326583862305</v>
+        <v>108.8901290893555</v>
       </c>
       <c r="J2" t="n">
-        <v>612.6506958007812</v>
+        <v>616.1336059570312</v>
       </c>
       <c r="K2" t="n">
-        <v>123.6262435913086</v>
+        <v>125.2135467529297</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>374.8433837890625</v>
+        <v>373.9782409667969</v>
       </c>
       <c r="I3" t="n">
-        <v>158.59912109375</v>
+        <v>160.1374206542969</v>
       </c>
       <c r="J3" t="n">
-        <v>680.6126708984375</v>
+        <v>679.9995727539062</v>
       </c>
       <c r="K3" t="n">
-        <v>114.3457260131836</v>
+        <v>123.7230377197266</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>419.0613708496094</v>
+        <v>423.2154235839844</v>
       </c>
       <c r="I4" t="n">
-        <v>173.5466003417969</v>
+        <v>176.0276641845703</v>
       </c>
       <c r="J4" t="n">
-        <v>702.50390625</v>
+        <v>709.82568359375</v>
       </c>
       <c r="K4" t="n">
-        <v>121.8420028686523</v>
+        <v>118.4118728637695</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>448.7091064453125</v>
+        <v>440.4635925292969</v>
       </c>
       <c r="I5" t="n">
-        <v>176.9432525634766</v>
+        <v>174.0684204101562</v>
       </c>
       <c r="J5" t="n">
-        <v>717.0679931640625</v>
+        <v>718.1275634765625</v>
       </c>
       <c r="K5" t="n">
-        <v>122.3475875854492</v>
+        <v>122.4290008544922</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>488.3848876953125</v>
+        <v>493.6698913574219</v>
       </c>
       <c r="I6" t="n">
-        <v>183.6844635009766</v>
+        <v>180.5177764892578</v>
       </c>
       <c r="J6" t="n">
-        <v>709.656494140625</v>
+        <v>702.3344116210938</v>
       </c>
       <c r="K6" t="n">
-        <v>116.8701782226562</v>
+        <v>125.3358001708984</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>247.3958129882812</v>
+        <v>246.7499542236328</v>
       </c>
       <c r="I7" t="n">
-        <v>43.69173812866211</v>
+        <v>42.84840393066406</v>
       </c>
       <c r="J7" t="n">
-        <v>489.0210266113281</v>
+        <v>483.1812438964844</v>
       </c>
       <c r="K7" t="n">
-        <v>103.635986328125</v>
+        <v>103.8931884765625</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>256.7741394042969</v>
+        <v>254.6594848632812</v>
       </c>
       <c r="I8" t="n">
-        <v>45.40933609008789</v>
+        <v>46.37056732177734</v>
       </c>
       <c r="J8" t="n">
-        <v>510.174072265625</v>
+        <v>511.0392150878906</v>
       </c>
       <c r="K8" t="n">
-        <v>128.1880645751953</v>
+        <v>128.5601959228516</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>287.40576171875</v>
+        <v>285.20751953125</v>
       </c>
       <c r="I9" t="n">
-        <v>59.03746032714844</v>
+        <v>60.53097152709961</v>
       </c>
       <c r="J9" t="n">
-        <v>574.8741455078125</v>
+        <v>576.408935546875</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0244293212891</v>
+        <v>147.2213134765625</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>324.3746948242188</v>
+        <v>324.239501953125</v>
       </c>
       <c r="I10" t="n">
-        <v>88.41227722167969</v>
+        <v>85.60372924804688</v>
       </c>
       <c r="J10" t="n">
-        <v>631.4920043945312</v>
+        <v>630.5223999023438</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1332244873047</v>
+        <v>141.5630035400391</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>377.5828247070312</v>
+        <v>380.5286865234375</v>
       </c>
       <c r="I11" t="n">
-        <v>130.1454467773438</v>
+        <v>135.9419860839844</v>
       </c>
       <c r="J11" t="n">
-        <v>665.6102905273438</v>
+        <v>670.345703125</v>
       </c>
       <c r="K11" t="n">
-        <v>136.9731292724609</v>
+        <v>136.7493896484375</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>440.758544921875</v>
+        <v>435.6011352539062</v>
       </c>
       <c r="I12" t="n">
-        <v>170.5543365478516</v>
+        <v>165.9860534667969</v>
       </c>
       <c r="J12" t="n">
-        <v>671.3683471679688</v>
+        <v>670.0321044921875</v>
       </c>
       <c r="K12" t="n">
-        <v>138.4232788085938</v>
+        <v>137.7630615234375</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>507.4251098632812</v>
+        <v>511.9888610839844</v>
       </c>
       <c r="I13" t="n">
-        <v>177.8346099853516</v>
+        <v>182.4459533691406</v>
       </c>
       <c r="J13" t="n">
-        <v>634.0922241210938</v>
+        <v>629.59130859375</v>
       </c>
       <c r="K13" t="n">
-        <v>158.1430969238281</v>
+        <v>160.1375579833984</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>254.7672119140625</v>
+        <v>257.7072143554688</v>
       </c>
       <c r="I14" t="n">
-        <v>42.24563217163086</v>
+        <v>44.27018356323242</v>
       </c>
       <c r="J14" t="n">
-        <v>361.3299865722656</v>
+        <v>359.9093017578125</v>
       </c>
       <c r="K14" t="n">
-        <v>100.3937530517578</v>
+        <v>98.29070281982422</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>255.4622650146484</v>
+        <v>255.5274200439453</v>
       </c>
       <c r="I15" t="n">
-        <v>40.71726608276367</v>
+        <v>38.81517791748047</v>
       </c>
       <c r="J15" t="n">
-        <v>483.8672485351562</v>
+        <v>484.7869873046875</v>
       </c>
       <c r="K15" t="n">
-        <v>94.85026550292969</v>
+        <v>98.54730987548828</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>263.0447998046875</v>
+        <v>261.7117309570312</v>
       </c>
       <c r="I16" t="n">
-        <v>38.48269653320312</v>
+        <v>39.26982498168945</v>
       </c>
       <c r="J16" t="n">
-        <v>536.1533813476562</v>
+        <v>534.193359375</v>
       </c>
       <c r="K16" t="n">
-        <v>86.90085601806641</v>
+        <v>86.46009826660156</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>266.4049682617188</v>
+        <v>267.6866149902344</v>
       </c>
       <c r="I17" t="n">
-        <v>36.79369354248047</v>
+        <v>38.1310920715332</v>
       </c>
       <c r="J17" t="n">
-        <v>521.6077270507812</v>
+        <v>519.3019409179688</v>
       </c>
       <c r="K17" t="n">
-        <v>99.34648895263672</v>
+        <v>102.4314651489258</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>289.2007141113281</v>
+        <v>287.3739624023438</v>
       </c>
       <c r="I18" t="n">
-        <v>42.32004547119141</v>
+        <v>40.99357604980469</v>
       </c>
       <c r="J18" t="n">
-        <v>553.4657592773438</v>
+        <v>552.9205322265625</v>
       </c>
       <c r="K18" t="n">
-        <v>139.5177307128906</v>
+        <v>140.6129455566406</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>322.0962524414062</v>
+        <v>324.3650207519531</v>
       </c>
       <c r="I19" t="n">
-        <v>63.14351654052734</v>
+        <v>67.93431091308594</v>
       </c>
       <c r="J19" t="n">
-        <v>599.8104248046875</v>
+        <v>594.061279296875</v>
       </c>
       <c r="K19" t="n">
-        <v>148.5574340820312</v>
+        <v>146.9187774658203</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>390.3175659179688</v>
+        <v>386.1263427734375</v>
       </c>
       <c r="I20" t="n">
-        <v>128.8533630371094</v>
+        <v>124.1612243652344</v>
       </c>
       <c r="J20" t="n">
-        <v>615.5992431640625</v>
+        <v>619.0012817382812</v>
       </c>
       <c r="K20" t="n">
-        <v>149.9088134765625</v>
+        <v>148.5858459472656</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>495.2043151855469</v>
+        <v>494.81103515625</v>
       </c>
       <c r="I21" t="n">
-        <v>162.3162078857422</v>
+        <v>163.4794311523438</v>
       </c>
       <c r="J21" t="n">
-        <v>613.2388305664062</v>
+        <v>616.5114135742188</v>
       </c>
       <c r="K21" t="n">
-        <v>170.0980834960938</v>
+        <v>164.4672546386719</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>672.7489624023438</v>
+        <v>676.33642578125</v>
       </c>
       <c r="I22" t="n">
-        <v>132.4378814697266</v>
+        <v>134.5416412353516</v>
       </c>
       <c r="J22" t="n">
-        <v>650.9949951171875</v>
+        <v>651.1585693359375</v>
       </c>
       <c r="K22" t="n">
-        <v>200.5306396484375</v>
+        <v>197.8920440673828</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>275.1964416503906</v>
+        <v>275.7672119140625</v>
       </c>
       <c r="I23" t="n">
-        <v>54.71789169311523</v>
+        <v>55.91652679443359</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8453369140625</v>
+        <v>175.6318054199219</v>
       </c>
       <c r="K23" t="n">
-        <v>100.7797393798828</v>
+        <v>104.6134567260742</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>282.269775390625</v>
+        <v>282.3574829101562</v>
       </c>
       <c r="I24" t="n">
-        <v>48.82816314697266</v>
+        <v>50.96402359008789</v>
       </c>
       <c r="J24" t="n">
-        <v>262.7538146972656</v>
+        <v>260.0302429199219</v>
       </c>
       <c r="K24" t="n">
-        <v>109.0437316894531</v>
+        <v>104.6716995239258</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>281.8291015625</v>
+        <v>281.0945739746094</v>
       </c>
       <c r="I25" t="n">
-        <v>42.31173706054688</v>
+        <v>41.12168884277344</v>
       </c>
       <c r="J25" t="n">
-        <v>435.7712707519531</v>
+        <v>438.3738098144531</v>
       </c>
       <c r="K25" t="n">
-        <v>103.6131591796875</v>
+        <v>104.4921569824219</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>280.3681335449219</v>
+        <v>281.1469421386719</v>
       </c>
       <c r="I26" t="n">
-        <v>39.83007431030273</v>
+        <v>37.92975616455078</v>
       </c>
       <c r="J26" t="n">
-        <v>517.90771484375</v>
+        <v>516.5917358398438</v>
       </c>
       <c r="K26" t="n">
-        <v>94.74362945556641</v>
+        <v>93.79366302490234</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>289.0900268554688</v>
+        <v>288.9229431152344</v>
       </c>
       <c r="I27" t="n">
-        <v>40.48408889770508</v>
+        <v>42.3514404296875</v>
       </c>
       <c r="J27" t="n">
-        <v>556.171630859375</v>
+        <v>561.779052734375</v>
       </c>
       <c r="K27" t="n">
-        <v>90.88867950439453</v>
+        <v>93.60159301757812</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>309.0888366699219</v>
+        <v>311.0433349609375</v>
       </c>
       <c r="I28" t="n">
-        <v>48.38668060302734</v>
+        <v>50.89916610717773</v>
       </c>
       <c r="J28" t="n">
-        <v>595.8883056640625</v>
+        <v>593.6585693359375</v>
       </c>
       <c r="K28" t="n">
-        <v>124.2138900756836</v>
+        <v>120.9538421630859</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>368.2273254394531</v>
+        <v>364.0707397460938</v>
       </c>
       <c r="I29" t="n">
-        <v>103.9415130615234</v>
+        <v>106.7790069580078</v>
       </c>
       <c r="J29" t="n">
-        <v>610.2665405273438</v>
+        <v>615.69189453125</v>
       </c>
       <c r="K29" t="n">
-        <v>135.1877746582031</v>
+        <v>133.1150665283203</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>507.5206909179688</v>
+        <v>512.1201782226562</v>
       </c>
       <c r="I30" t="n">
-        <v>172.8198394775391</v>
+        <v>176.3072204589844</v>
       </c>
       <c r="J30" t="n">
-        <v>635.0548706054688</v>
+        <v>633.6866455078125</v>
       </c>
       <c r="K30" t="n">
-        <v>149.1961669921875</v>
+        <v>146.9123687744141</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>694.1556396484375</v>
+        <v>691.8218383789062</v>
       </c>
       <c r="I31" t="n">
-        <v>118.0724105834961</v>
+        <v>118.214469909668</v>
       </c>
       <c r="J31" t="n">
-        <v>677.607421875</v>
+        <v>681.0184936523438</v>
       </c>
       <c r="K31" t="n">
-        <v>183.27197265625</v>
+        <v>183.4486083984375</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>293.1710815429688</v>
+        <v>286.7257995605469</v>
       </c>
       <c r="I32" t="n">
-        <v>71.58763122558594</v>
+        <v>67.26564025878906</v>
       </c>
       <c r="J32" t="n">
-        <v>84.7713623046875</v>
+        <v>83.85238647460938</v>
       </c>
       <c r="K32" t="n">
-        <v>81.86868286132812</v>
+        <v>84.27022552490234</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>299.9635620117188</v>
+        <v>300.6998291015625</v>
       </c>
       <c r="I33" t="n">
-        <v>60.5003662109375</v>
+        <v>61.17856979370117</v>
       </c>
       <c r="J33" t="n">
-        <v>138.5713043212891</v>
+        <v>137.2083129882812</v>
       </c>
       <c r="K33" t="n">
-        <v>99.41683197021484</v>
+        <v>104.7835006713867</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>311.2896728515625</v>
+        <v>312.7833862304688</v>
       </c>
       <c r="I34" t="n">
-        <v>58.70412826538086</v>
+        <v>59.92539215087891</v>
       </c>
       <c r="J34" t="n">
-        <v>226.8026275634766</v>
+        <v>227.9333038330078</v>
       </c>
       <c r="K34" t="n">
-        <v>119.5358428955078</v>
+        <v>119.677131652832</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>327.1261596679688</v>
+        <v>325.3608703613281</v>
       </c>
       <c r="I35" t="n">
-        <v>61.86278915405273</v>
+        <v>60.53761291503906</v>
       </c>
       <c r="J35" t="n">
-        <v>345.2392578125</v>
+        <v>344.8771362304688</v>
       </c>
       <c r="K35" t="n">
-        <v>143.6870727539062</v>
+        <v>146.6183319091797</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>329.3995361328125</v>
+        <v>326.8105773925781</v>
       </c>
       <c r="I36" t="n">
-        <v>57.47430038452148</v>
+        <v>54.9328498840332</v>
       </c>
       <c r="J36" t="n">
-        <v>520.3526611328125</v>
+        <v>519.672119140625</v>
       </c>
       <c r="K36" t="n">
-        <v>156.0093078613281</v>
+        <v>156.5671081542969</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>342.8921203613281</v>
+        <v>345.8453979492188</v>
       </c>
       <c r="I37" t="n">
-        <v>58.94968032836914</v>
+        <v>61.89342498779297</v>
       </c>
       <c r="J37" t="n">
-        <v>583.9611206054688</v>
+        <v>592.9205932617188</v>
       </c>
       <c r="K37" t="n">
-        <v>156.6209564208984</v>
+        <v>151.6775665283203</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>391.5562744140625</v>
+        <v>390.9579162597656</v>
       </c>
       <c r="I38" t="n">
-        <v>96.29959106445312</v>
+        <v>91.15606689453125</v>
       </c>
       <c r="J38" t="n">
-        <v>640.6724243164062</v>
+        <v>641.1884765625</v>
       </c>
       <c r="K38" t="n">
-        <v>145.2553100585938</v>
+        <v>147.4845123291016</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>525.208251953125</v>
+        <v>527.8364868164062</v>
       </c>
       <c r="I39" t="n">
-        <v>157.9940948486328</v>
+        <v>156.4861450195312</v>
       </c>
       <c r="J39" t="n">
-        <v>646.798828125</v>
+        <v>646.1590576171875</v>
       </c>
       <c r="K39" t="n">
-        <v>154.3197174072266</v>
+        <v>156.1797332763672</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>693.4481811523438</v>
+        <v>693.3574829101562</v>
       </c>
       <c r="I40" t="n">
-        <v>100.4454803466797</v>
+        <v>99.12233734130859</v>
       </c>
       <c r="J40" t="n">
-        <v>688.0875244140625</v>
+        <v>688.9893798828125</v>
       </c>
       <c r="K40" t="n">
-        <v>202.7507781982422</v>
+        <v>203.4296112060547</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>303.5077819824219</v>
+        <v>303.0384521484375</v>
       </c>
       <c r="I41" t="n">
-        <v>79.60130310058594</v>
+        <v>79.65019989013672</v>
       </c>
       <c r="J41" t="n">
-        <v>34.06122589111328</v>
+        <v>33.79288101196289</v>
       </c>
       <c r="K41" t="n">
-        <v>79.82164001464844</v>
+        <v>81.14873504638672</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>319.5653686523438</v>
+        <v>315.1907043457031</v>
       </c>
       <c r="I42" t="n">
-        <v>78.71710968017578</v>
+        <v>74.77787017822266</v>
       </c>
       <c r="J42" t="n">
-        <v>64.94832611083984</v>
+        <v>66.86339569091797</v>
       </c>
       <c r="K42" t="n">
-        <v>90.82606506347656</v>
+        <v>93.41779327392578</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>330.2836608886719</v>
+        <v>330.5588989257812</v>
       </c>
       <c r="I43" t="n">
-        <v>76.97601318359375</v>
+        <v>77.87943267822266</v>
       </c>
       <c r="J43" t="n">
-        <v>93.92721557617188</v>
+        <v>97.68475341796875</v>
       </c>
       <c r="K43" t="n">
-        <v>100.8893432617188</v>
+        <v>99.34214019775391</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>346.5620727539062</v>
+        <v>346.9482727050781</v>
       </c>
       <c r="I44" t="n">
-        <v>78.92525482177734</v>
+        <v>81.54471588134766</v>
       </c>
       <c r="J44" t="n">
-        <v>199.6314849853516</v>
+        <v>204.2510528564453</v>
       </c>
       <c r="K44" t="n">
-        <v>128.8272857666016</v>
+        <v>134.5788421630859</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>360.4721984863281</v>
+        <v>366.9545288085938</v>
       </c>
       <c r="I45" t="n">
-        <v>82.30620574951172</v>
+        <v>85.36942291259766</v>
       </c>
       <c r="J45" t="n">
-        <v>311.5287475585938</v>
+        <v>306.0108642578125</v>
       </c>
       <c r="K45" t="n">
-        <v>175.4264068603516</v>
+        <v>172.4957275390625</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>378.2022399902344</v>
+        <v>380.7341918945312</v>
       </c>
       <c r="I46" t="n">
-        <v>78.72495269775391</v>
+        <v>80.44197082519531</v>
       </c>
       <c r="J46" t="n">
-        <v>430.1117553710938</v>
+        <v>438.3638610839844</v>
       </c>
       <c r="K46" t="n">
-        <v>226.9140014648438</v>
+        <v>226.7364349365234</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>418.6203002929688</v>
+        <v>418.3749694824219</v>
       </c>
       <c r="I47" t="n">
-        <v>79.02230072021484</v>
+        <v>79.41731262207031</v>
       </c>
       <c r="J47" t="n">
-        <v>528.746337890625</v>
+        <v>529.880126953125</v>
       </c>
       <c r="K47" t="n">
-        <v>222.75390625</v>
+        <v>223.4936370849609</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>537.4238891601562</v>
+        <v>540.2225341796875</v>
       </c>
       <c r="I48" t="n">
-        <v>133.1010437011719</v>
+        <v>132.6089172363281</v>
       </c>
       <c r="J48" t="n">
-        <v>616.9498291015625</v>
+        <v>618.2096557617188</v>
       </c>
       <c r="K48" t="n">
-        <v>199.1853942871094</v>
+        <v>200.0336303710938</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>689.4249877929688</v>
+        <v>688.8814697265625</v>
       </c>
       <c r="I49" t="n">
-        <v>97.39811706542969</v>
+        <v>99.49886322021484</v>
       </c>
       <c r="J49" t="n">
-        <v>655.3728637695312</v>
+        <v>658.7908325195312</v>
       </c>
       <c r="K49" t="n">
-        <v>222.3639831542969</v>
+        <v>215.4339141845703</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>315.5264587402344</v>
+        <v>316.4993896484375</v>
       </c>
       <c r="I50" t="n">
-        <v>76.08046722412109</v>
+        <v>81.83480072021484</v>
       </c>
       <c r="J50" t="n">
-        <v>-18.32173919677734</v>
+        <v>-19.37727737426758</v>
       </c>
       <c r="K50" t="n">
-        <v>86.25764465332031</v>
+        <v>85.64391326904297</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>327.4879455566406</v>
+        <v>330.1063232421875</v>
       </c>
       <c r="I51" t="n">
-        <v>75.27268981933594</v>
+        <v>76.47358703613281</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.9119862914085388</v>
+        <v>3.908087491989136</v>
       </c>
       <c r="K51" t="n">
-        <v>89.86909484863281</v>
+        <v>89.79151916503906</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>341.4341430664062</v>
+        <v>339.7331848144531</v>
       </c>
       <c r="I52" t="n">
-        <v>76.76754760742188</v>
+        <v>77.49143981933594</v>
       </c>
       <c r="J52" t="n">
-        <v>18.97785568237305</v>
+        <v>12.8356351852417</v>
       </c>
       <c r="K52" t="n">
-        <v>90.37789916992188</v>
+        <v>92.86602783203125</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>358.2598571777344</v>
+        <v>356.4706115722656</v>
       </c>
       <c r="I53" t="n">
-        <v>78.23452758789062</v>
+        <v>79.05586242675781</v>
       </c>
       <c r="J53" t="n">
-        <v>56.15836715698242</v>
+        <v>53.46843719482422</v>
       </c>
       <c r="K53" t="n">
-        <v>109.4602203369141</v>
+        <v>106.5650787353516</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>376.0992126464844</v>
+        <v>375.3198547363281</v>
       </c>
       <c r="I54" t="n">
-        <v>79.79545593261719</v>
+        <v>80.60448455810547</v>
       </c>
       <c r="J54" t="n">
-        <v>110.2112350463867</v>
+        <v>109.9105834960938</v>
       </c>
       <c r="K54" t="n">
-        <v>133.1106567382812</v>
+        <v>129.2221374511719</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>395.5301513671875</v>
+        <v>394.0102844238281</v>
       </c>
       <c r="I55" t="n">
-        <v>82.33175659179688</v>
+        <v>82.12605285644531</v>
       </c>
       <c r="J55" t="n">
-        <v>235.2134094238281</v>
+        <v>234.0291595458984</v>
       </c>
       <c r="K55" t="n">
-        <v>186.9703979492188</v>
+        <v>187.1679534912109</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>434.5430603027344</v>
+        <v>429.8855590820312</v>
       </c>
       <c r="I56" t="n">
-        <v>91.34573364257812</v>
+        <v>91.2232666015625</v>
       </c>
       <c r="J56" t="n">
-        <v>306.9013671875</v>
+        <v>308.7433166503906</v>
       </c>
       <c r="K56" t="n">
-        <v>226.1938171386719</v>
+        <v>221.4738159179688</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>505.8313598632812</v>
+        <v>502.7605285644531</v>
       </c>
       <c r="I57" t="n">
-        <v>111.2645416259766</v>
+        <v>110.1265182495117</v>
       </c>
       <c r="J57" t="n">
-        <v>420.4961853027344</v>
+        <v>420.9447021484375</v>
       </c>
       <c r="K57" t="n">
-        <v>245.3338317871094</v>
+        <v>241.4091033935547</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>678.8447875976562</v>
+        <v>678.0062255859375</v>
       </c>
       <c r="I58" t="n">
-        <v>94.70775604248047</v>
+        <v>89.99899291992188</v>
       </c>
       <c r="J58" t="n">
-        <v>521.1607666015625</v>
+        <v>523.9625244140625</v>
       </c>
       <c r="K58" t="n">
-        <v>260.9466552734375</v>
+        <v>266.5787658691406</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>343.4027099609375</v>
+        <v>344.2436828613281</v>
       </c>
       <c r="I59" t="n">
-        <v>79.68007659912109</v>
+        <v>79.26671600341797</v>
       </c>
       <c r="J59" t="n">
-        <v>-68.61921691894531</v>
+        <v>-68.16477203369141</v>
       </c>
       <c r="K59" t="n">
-        <v>84.80716705322266</v>
+        <v>83.26710510253906</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>349.2578430175781</v>
+        <v>353.1439514160156</v>
       </c>
       <c r="I60" t="n">
-        <v>72.19606781005859</v>
+        <v>77.45201110839844</v>
       </c>
       <c r="J60" t="n">
-        <v>-63.74273300170898</v>
+        <v>-65.39179229736328</v>
       </c>
       <c r="K60" t="n">
-        <v>84.49889373779297</v>
+        <v>88.48833465576172</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>368.92724609375</v>
+        <v>365.5487365722656</v>
       </c>
       <c r="I61" t="n">
-        <v>79.48123931884766</v>
+        <v>75.80113983154297</v>
       </c>
       <c r="J61" t="n">
-        <v>-46.75254440307617</v>
+        <v>-46.59188461303711</v>
       </c>
       <c r="K61" t="n">
-        <v>90.32466888427734</v>
+        <v>87.62514495849609</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>387.461669921875</v>
+        <v>384.2522583007812</v>
       </c>
       <c r="I62" t="n">
-        <v>79.72273254394531</v>
+        <v>78.59195709228516</v>
       </c>
       <c r="J62" t="n">
-        <v>-23.82876014709473</v>
+        <v>-21.76207160949707</v>
       </c>
       <c r="K62" t="n">
-        <v>98.18350219726562</v>
+        <v>99.05464172363281</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>403.1842956542969</v>
+        <v>400.9960021972656</v>
       </c>
       <c r="I63" t="n">
-        <v>81.40386199951172</v>
+        <v>82.43363952636719</v>
       </c>
       <c r="J63" t="n">
-        <v>41.64007568359375</v>
+        <v>35.90495300292969</v>
       </c>
       <c r="K63" t="n">
-        <v>133.0835418701172</v>
+        <v>133.6442718505859</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>436.1014099121094</v>
+        <v>432.7608947753906</v>
       </c>
       <c r="I64" t="n">
-        <v>92.49863433837891</v>
+        <v>96.390869140625</v>
       </c>
       <c r="J64" t="n">
-        <v>106.8831329345703</v>
+        <v>104.2649230957031</v>
       </c>
       <c r="K64" t="n">
-        <v>173.6915893554688</v>
+        <v>169.3080749511719</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>500.2561340332031</v>
+        <v>504.6603698730469</v>
       </c>
       <c r="I65" t="n">
-        <v>114.335075378418</v>
+        <v>114.4071350097656</v>
       </c>
       <c r="J65" t="n">
-        <v>246.3577117919922</v>
+        <v>245.8810729980469</v>
       </c>
       <c r="K65" t="n">
-        <v>233.7931671142578</v>
+        <v>233.7264556884766</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>375.0593872070312</v>
+        <v>373.0806884765625</v>
       </c>
       <c r="I66" t="n">
-        <v>82.19071960449219</v>
+        <v>79.85623931884766</v>
       </c>
       <c r="J66" t="n">
-        <v>-129.1385345458984</v>
+        <v>-127.8276062011719</v>
       </c>
       <c r="K66" t="n">
-        <v>79.61163330078125</v>
+        <v>82.54986572265625</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>383.1502075195312</v>
+        <v>378.7774353027344</v>
       </c>
       <c r="I67" t="n">
-        <v>79.47970581054688</v>
+        <v>81.74497222900391</v>
       </c>
       <c r="J67" t="n">
-        <v>-123.6145553588867</v>
+        <v>-124.410270690918</v>
       </c>
       <c r="K67" t="n">
-        <v>79.24520874023438</v>
+        <v>82.29673767089844</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>397.4952392578125</v>
+        <v>397.6942138671875</v>
       </c>
       <c r="I68" t="n">
-        <v>81.54447174072266</v>
+        <v>81.15488433837891</v>
       </c>
       <c r="J68" t="n">
-        <v>-98.22393035888672</v>
+        <v>-99.48683929443359</v>
       </c>
       <c r="K68" t="n">
-        <v>86.34536743164062</v>
+        <v>81.87654876708984</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>410.4052124023438</v>
+        <v>410.1598815917969</v>
       </c>
       <c r="I69" t="n">
-        <v>84.75609588623047</v>
+        <v>84.58770751953125</v>
       </c>
       <c r="J69" t="n">
-        <v>-70.83665466308594</v>
+        <v>-75.68892669677734</v>
       </c>
       <c r="K69" t="n">
-        <v>94.59873199462891</v>
+        <v>91.90628051757812</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>436.4606323242188</v>
+        <v>439.2085266113281</v>
       </c>
       <c r="I70" t="n">
-        <v>90.5704345703125</v>
+        <v>91.02602386474609</v>
       </c>
       <c r="J70" t="n">
-        <v>-4.499458789825439</v>
+        <v>-8.558966636657715</v>
       </c>
       <c r="K70" t="n">
-        <v>142.4524078369141</v>
+        <v>133.4945678710938</v>
       </c>
     </row>
   </sheetData>
